--- a/Results per Attribute List.xlsx
+++ b/Results per Attribute List.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGB\Documents\Ryerson\CKME 136\Final Report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGB\Documents\Ryerson\CKME 136\GitHub Copies\July 8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695977F1-A0CF-4A86-A0FF-3109E347D347}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB035384-22FF-4095-9CBF-60F7D61D130A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5950" yWindow="5690" windowWidth="19650" windowHeight="9850" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="8 Attributes" sheetId="1" r:id="rId1"/>
+    <sheet name="8 Attributes" sheetId="4" r:id="rId1"/>
     <sheet name="6 Attributes" sheetId="2" r:id="rId2"/>
-    <sheet name="Stability w8" sheetId="3" r:id="rId3"/>
+    <sheet name="Stability w8" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'6 Attributes'!$A$1:$O$20</definedName>
@@ -43,7 +43,7 @@
     <author>TGB</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{896DF319-2792-485B-ABB8-E980B41515AE}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{BA79345E-317C-4A0E-ACD2-98AC614109FA}">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,21 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{0A685140-E8CB-4CB3-AC91-6A71E2628819}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{EF2FFB50-6E12-4D0A-83CC-92FC74D9E012}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Leaving these out to test, because these two attributes were not found to have a statistically significant relationship with the dependent variable, according to the logistic regression (glm) results</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{D95BFFAF-B414-42D3-8685-1F4D75D4C710}">
       <text>
         <r>
           <rPr>
@@ -105,7 +119,7 @@
     <author>TGB</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{EC293BC3-A067-48FE-A7A1-BF9162948D52}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{4793107B-D8CA-4F31-8E51-784E065385B4}">
       <text>
         <r>
           <rPr>
@@ -124,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="15">
   <si>
     <t>Accuracy</t>
   </si>
@@ -168,7 +182,7 @@
     <t>LOGISTIC REGRESSION - Number of Folds (10 repeats)</t>
   </si>
   <si>
-    <t>s</t>
+    <t>Leaving out  'ACP'</t>
   </si>
 </sst>
 </file>
@@ -414,6 +428,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -422,12 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -711,11 +725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A74D5E-3C9A-4710-B157-D9EE60C77B5B}">
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -726,10 +740,11 @@
     <col min="14" max="14" width="13.54296875" customWidth="1"/>
     <col min="15" max="15" width="2.54296875" customWidth="1"/>
     <col min="16" max="16" width="13.08984375" customWidth="1"/>
-    <col min="17" max="17" width="2.6328125" customWidth="1"/>
+    <col min="17" max="17" width="1.7265625" customWidth="1"/>
+    <col min="18" max="18" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -748,7 +763,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -766,33 +781,37 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="13" t="s">
         <v>9</v>
       </c>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R2" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="17"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -834,23 +853,26 @@
         <v>7</v>
       </c>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>0.88</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="D5" s="8">
-        <v>0.86670000000000003</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="E5" s="8">
-        <v>0.88</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="F5" s="8">
-        <v>0.86670000000000003</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="G5" s="8">
         <v>0.90669999999999995</v>
@@ -859,121 +881,124 @@
         <v>0.88</v>
       </c>
       <c r="I5" s="8">
-        <v>0.86670000000000003</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="J5" s="8">
         <v>0.90669999999999995</v>
       </c>
       <c r="K5" s="8">
-        <v>0.89329999999999998</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="L5" s="8">
-        <v>0.88</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="11">
         <f>AVERAGE(C5:L5)</f>
-        <v>0.88268000000000002</v>
+        <v>0.90403</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="11">
         <v>0.89329999999999998</v>
       </c>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="D6" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="E6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="F6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="G6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="H6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="I6" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="J6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="K6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="L6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="11">
         <f>AVERAGE(C6:L6)</f>
-        <v>0.95927999999999991</v>
+        <v>0.92590000000000017</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="9">
         <v>0.94440000000000002</v>
       </c>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="E7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="F7" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="G7" s="10">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="H7" s="10">
         <v>0.76190000000000002</v>
       </c>
-      <c r="H7" s="10">
-        <v>0.66669999999999996</v>
-      </c>
       <c r="I7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="J7" s="10">
-        <v>0.76190000000000002</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="K7" s="10">
-        <v>0.71430000000000005</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="L7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="11">
         <f>AVERAGE(C7:L7)</f>
-        <v>0.68572999999999973</v>
+        <v>0.84758</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="10">
         <v>0.76190000000000002</v>
       </c>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -991,29 +1016,31 @@
       <c r="O8" s="1"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="1"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -1051,54 +1078,56 @@
       <c r="O10" s="1"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="8">
-        <v>0.85329999999999995</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="D11" s="8">
-        <v>0.85329999999999995</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="E11" s="8">
-        <v>0.85329999999999995</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="F11" s="8">
-        <v>0.85329999999999995</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="G11" s="8">
         <v>0.85329999999999995</v>
       </c>
       <c r="H11" s="8">
-        <v>0.85329999999999995</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="I11" s="8">
-        <v>0.88</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="J11" s="8">
-        <v>0.85329999999999995</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="K11" s="8">
         <v>0.85329999999999995</v>
       </c>
       <c r="L11" s="8">
-        <v>0.85329999999999995</v>
+        <v>0.88</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="11">
         <f>AVERAGE(C11:L11)</f>
-        <v>0.8559699999999999</v>
+        <v>0.86534999999999995</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="11">
         <v>0.82530000000000003</v>
       </c>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>1</v>
@@ -1116,19 +1145,19 @@
         <v>0.85189999999999999</v>
       </c>
       <c r="G12" s="9">
-        <v>0.85189999999999999</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="H12" s="9">
         <v>0.85189999999999999</v>
       </c>
       <c r="I12" s="9">
-        <v>0.88890000000000002</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="J12" s="9">
         <v>0.85189999999999999</v>
       </c>
       <c r="K12" s="9">
-        <v>0.85189999999999999</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="L12" s="9">
         <v>0.85189999999999999</v>
@@ -1136,61 +1165,63 @@
       <c r="M12" s="1"/>
       <c r="N12" s="11">
         <f>AVERAGE(C12:L12)</f>
-        <v>0.85559999999999992</v>
+        <v>0.84817999999999993</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="9">
         <v>0.83520000000000005</v>
       </c>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="D13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="E13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="F13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="G13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="H13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="I13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="J13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="K13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="L13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.95240000000000002</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="11">
         <f>AVERAGE(C13:L13)</f>
-        <v>0.85709999999999997</v>
+        <v>0.90956000000000015</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="10">
         <v>0.8</v>
       </c>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1208,29 +1239,31 @@
       <c r="O14" s="1"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="1"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -1268,20 +1301,21 @@
       <c r="O16" s="1"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R16" s="2"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="D17" s="8">
         <v>0.85329999999999995</v>
       </c>
-      <c r="D17" s="8">
-        <v>0.89329999999999998</v>
-      </c>
       <c r="E17" s="8">
-        <v>0.86670000000000003</v>
+        <v>0.85329999999999995</v>
       </c>
       <c r="F17" s="8">
         <v>0.85329999999999995</v>
@@ -1290,124 +1324,127 @@
         <v>0.85329999999999995</v>
       </c>
       <c r="H17" s="8">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="I17" s="8">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="K17" s="8">
         <v>0.88</v>
       </c>
-      <c r="I17" s="8">
+      <c r="L17" s="8">
         <v>0.89329999999999998</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0.85329999999999995</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="11">
         <f>AVERAGE(C17:L17)</f>
-        <v>0.86664999999999992</v>
+        <v>0.87597999999999987</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="11">
         <v>0.88270000000000004</v>
       </c>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C18" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="D18" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="E18" s="9">
-        <v>0.98150000000000004</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="F18" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="G18" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="H18" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="I18" s="9">
-        <v>0.98150000000000004</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="J18" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="K18" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="L18" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="11">
         <f>AVERAGE(C18:L18)</f>
-        <v>0.95926000000000011</v>
+        <v>0.91479999999999995</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="9">
         <v>0.94810000000000005</v>
       </c>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.8095</v>
       </c>
       <c r="D19" s="10">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F19" s="10">
         <v>0.71430000000000005</v>
       </c>
-      <c r="E19" s="10">
-        <v>0.57140000000000002</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0.57140000000000002</v>
-      </c>
       <c r="G19" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="H19" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.8095</v>
       </c>
       <c r="I19" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="J19" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="K19" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.8095</v>
       </c>
       <c r="L19" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="11">
         <f>AVERAGE(C19:L19)</f>
-        <v>0.62854999999999994</v>
+        <v>0.77566000000000002</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="10">
         <v>0.71430000000000005</v>
       </c>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1426,7 +1463,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1446,12 +1483,13 @@
       <c r="Q21" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="C15:L15"/>
     <mergeCell ref="B2:L2"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="C3:L3"/>
     <mergeCell ref="C9:L9"/>
-    <mergeCell ref="C15:L15"/>
-    <mergeCell ref="P2:P3"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="91" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1516,18 +1554,18 @@
     <row r="3" spans="1:15" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -1717,18 +1755,18 @@
     <row r="9" spans="1:15" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
       <c r="M9" s="1"/>
       <c r="N9" s="2"/>
       <c r="O9" s="1"/>
@@ -1916,18 +1954,18 @@
     <row r="15" spans="1:15" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
       <c r="M15" s="1"/>
       <c r="N15" s="2"/>
       <c r="O15" s="1"/>
@@ -2126,24 +2164,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEB041B-C33A-4479-AF9E-8487DA240B3B}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C007A6-28AD-444A-BF6F-1FE44752C5A4}">
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.90625" customWidth="1"/>
     <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.90625" customWidth="1"/>
     <col min="11" max="11" width="13.54296875" customWidth="1"/>
     <col min="12" max="12" width="2.54296875" customWidth="1"/>
     <col min="13" max="13" width="2.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2158,7 +2197,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="18" t="s">
         <v>10</v>
@@ -2175,24 +2214,24 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3">
@@ -2223,109 +2262,109 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <v>0.88</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="D5" s="8">
-        <v>0.88</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="E5" s="8">
-        <v>0.86670000000000003</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="F5" s="8">
-        <v>0.88</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="G5" s="8">
-        <v>0.88</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="H5" s="8">
-        <v>0.89329999999999998</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="I5" s="8">
-        <v>0.88</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="11">
         <f>AVERAGE(C5:I5)</f>
-        <v>0.88</v>
+        <v>0.90669999999999995</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="D6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="E6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="F6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="G6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="H6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="I6" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="11">
         <f>AVERAGE(C6:I6)</f>
-        <v>0.96299999999999997</v>
+        <v>0.92590000000000017</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="D7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="E7" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="F7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="G7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="H7" s="10">
-        <v>0.71430000000000005</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="I7" s="10">
-        <v>0.66669999999999996</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="11">
         <f>AVERAGE(C7:I7)</f>
-        <v>0.66668571428571421</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2340,24 +2379,24 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="1"/>
       <c r="K9" s="2"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3">
@@ -2386,7 +2425,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>0</v>
@@ -2395,13 +2434,13 @@
         <v>0.85329999999999995</v>
       </c>
       <c r="D11" s="8">
-        <v>0.88</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="E11" s="8">
-        <v>0.88</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="F11" s="8">
-        <v>0.88</v>
+        <v>0.86670000000000003</v>
       </c>
       <c r="G11" s="8">
         <v>0.85329999999999995</v>
@@ -2410,85 +2449,85 @@
         <v>0.85329999999999995</v>
       </c>
       <c r="I11" s="8">
-        <v>0.88</v>
+        <v>0.85329999999999995</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="11">
         <f>AVERAGE(C11:I11)</f>
-        <v>0.86855714285714281</v>
+        <v>0.85904285714285711</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="9">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="D12" s="9">
         <v>0.85189999999999999</v>
       </c>
-      <c r="D12" s="9">
-        <v>0.88890000000000002</v>
-      </c>
       <c r="E12" s="9">
-        <v>0.88890000000000002</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="F12" s="9">
-        <v>0.88890000000000002</v>
+        <v>0.85189999999999999</v>
       </c>
       <c r="G12" s="9">
-        <v>0.85189999999999999</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="H12" s="9">
-        <v>0.85189999999999999</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="I12" s="9">
-        <v>0.88890000000000002</v>
+        <v>0.83330000000000004</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="11">
         <f>AVERAGE(C12:I12)</f>
-        <v>0.87304285714285712</v>
+        <v>0.84127142857142878</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="D13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="E13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="F13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="G13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="H13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="I13" s="10">
-        <v>0.85709999999999997</v>
+        <v>0.90480000000000005</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="11">
         <f>AVERAGE(C13:I13)</f>
-        <v>0.85709999999999997</v>
+        <v>0.90479999999999994</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2502,28 +2541,25 @@
       <c r="K14" s="2"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="Q14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:13" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
       <c r="J15" s="1"/>
       <c r="K15" s="2"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3">
@@ -2561,27 +2597,27 @@
         <v>0.85329999999999995</v>
       </c>
       <c r="D17" s="8">
+        <v>0.88</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.90669999999999995</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="I17" s="8">
         <v>0.85329999999999995</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0.85329999999999995</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0.88</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0.88</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="11">
         <f>AVERAGE(C17:I17)</f>
-        <v>0.86284285714285702</v>
+        <v>0.88188571428571427</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -2592,30 +2628,30 @@
         <v>1</v>
       </c>
       <c r="C18" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="D18" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="E18" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="F18" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="G18" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="H18" s="9">
-        <v>0.96299999999999997</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="I18" s="9">
-        <v>0.94440000000000002</v>
+        <v>0.90739999999999998</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="11">
         <f>AVERAGE(C18:I18)</f>
-        <v>0.95237142857142854</v>
+        <v>0.91268571428571443</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2626,22 +2662,22 @@
         <v>2</v>
       </c>
       <c r="C19" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.71430000000000005</v>
       </c>
       <c r="D19" s="10">
-        <v>0.57140000000000002</v>
+        <v>0.8095</v>
       </c>
       <c r="E19" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="F19" s="10">
-        <v>0.57140000000000002</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="G19" s="10">
-        <v>0.71430000000000005</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="H19" s="10">
-        <v>0.61899999999999999</v>
+        <v>0.8095</v>
       </c>
       <c r="I19" s="10">
         <v>0.71430000000000005</v>
@@ -2649,7 +2685,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="11">
         <f>AVERAGE(C19:I19)</f>
-        <v>0.63262857142857143</v>
+        <v>0.80269999999999997</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
